--- a/Quiz1__Computer Fundamentals.xlsx
+++ b/Quiz1__Computer Fundamentals.xlsx
@@ -576,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,25 +637,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -666,6 +647,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -918,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1083,10 +1086,10 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1112,13 +1115,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1144,7 +1147,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1179,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1211,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -1240,14 +1243,14 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="27">
         <v>7</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="1"/>
@@ -1274,13 +1277,13 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1306,7 +1309,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1338,14 +1341,14 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="1"/>
@@ -1372,7 +1375,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +1407,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1436,13 +1439,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1468,14 +1471,14 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="1"/>
@@ -1502,7 +1505,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1537,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +1569,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
@@ -1598,13 +1601,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1630,14 +1633,14 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="1"/>
@@ -1664,7 +1667,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +1731,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1760,13 +1763,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1792,7 +1795,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1827,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
@@ -1856,14 +1859,14 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E30" s="1"/>
@@ -1890,7 +1893,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
@@ -1922,13 +1925,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1954,7 +1957,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="29"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +1989,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="29"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
@@ -2018,14 +2021,14 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="29"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E35" s="1"/>
@@ -2052,7 +2055,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -2084,13 +2087,13 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2116,7 +2119,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="29"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="29"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2183,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
@@ -2212,11 +2215,11 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="30" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="1"/>
@@ -2244,13 +2247,13 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2276,7 +2279,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A43" s="29"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2308,11 +2311,11 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="29"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="1"/>
@@ -2340,7 +2343,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="29"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -2404,13 +2407,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="13"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2436,7 +2439,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="29"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="14" t="s">
         <v>7</v>
       </c>
@@ -2468,11 +2471,11 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="29"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1"/>
@@ -2500,7 +2503,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="29"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="14" t="s">
         <v>9</v>
       </c>
@@ -2532,11 +2535,11 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="31" t="s">
         <v>58</v>
       </c>
       <c r="D51" s="1"/>
@@ -2564,13 +2567,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2596,7 +2599,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="29"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
@@ -2628,7 +2631,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="29"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="29"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
@@ -2692,11 +2695,11 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="30"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="27" t="s">
         <v>64</v>
       </c>
       <c r="D56" s="1"/>
@@ -28345,6 +28348,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B47:C47"/>
@@ -28356,16 +28369,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Quiz1__Computer Fundamentals.xlsx
+++ b/Quiz1__Computer Fundamentals.xlsx
@@ -422,7 +422,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,6 +655,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,7 +670,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -665,10 +677,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -921,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1086,10 +1095,10 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1115,13 +1124,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1147,7 +1156,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1188,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1211,11 +1220,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="33"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="42">
         <v>5</v>
       </c>
       <c r="D10" s="1"/>
@@ -1243,7 +1252,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1277,13 +1286,13 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1309,7 +1318,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1350,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1375,7 +1384,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1416,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1439,13 +1448,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1471,7 +1480,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="33"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1514,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="33"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1546,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="33"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1578,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
@@ -1601,13 +1610,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1633,7 +1642,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1708,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="33"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1740,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="34"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1763,13 +1772,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1795,7 +1804,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="33"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1836,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="33"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1868,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="33"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1902,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
@@ -1925,13 +1934,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1957,7 +1966,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="33"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1998,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2030,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
@@ -2055,7 +2064,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -2087,13 +2096,13 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="39"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2119,7 +2128,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="33"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2160,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="33"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
@@ -2183,7 +2192,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="33"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2224,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
@@ -2247,13 +2256,13 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2279,7 +2288,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A43" s="33"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2320,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="33"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2352,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="33"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2384,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -2407,13 +2416,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="36"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="13"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2439,7 +2448,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="33"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="14" t="s">
         <v>7</v>
       </c>
@@ -2471,11 +2480,11 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="33"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="32" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="1"/>
@@ -2503,7 +2512,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="33"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="14" t="s">
         <v>9</v>
       </c>
@@ -2535,7 +2544,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="14" t="s">
         <v>10</v>
       </c>
@@ -2567,13 +2576,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2599,7 +2608,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="33"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2640,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="33"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +2672,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="33"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2704,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
@@ -28348,16 +28357,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B47:C47"/>
@@ -28369,6 +28368,16 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Quiz1__Computer Fundamentals.xlsx
+++ b/Quiz1__Computer Fundamentals.xlsx
@@ -658,10 +658,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,6 +669,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -677,8 +677,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1095,10 +1095,10 @@
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1124,13 +1124,13 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1156,7 +1156,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1220,11 +1220,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="33">
         <v>5</v>
       </c>
       <c r="D10" s="1"/>
@@ -1252,7 +1252,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
@@ -1286,13 +1286,13 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1318,7 +1318,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1448,13 +1448,13 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
@@ -1610,13 +1610,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1642,7 +1642,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1676,11 +1676,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="1"/>
@@ -1708,7 +1708,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1740,7 +1740,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="37"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1772,13 +1772,13 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="34"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1804,7 +1804,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="8" t="s">
         <v>10</v>
       </c>
@@ -1934,13 +1934,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A34" s="36"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="8" t="s">
         <v>8</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A36" s="37"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="8" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="34" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="40" t="s">
@@ -2128,7 +2128,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A38" s="36"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="8" t="s">
         <v>7</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="8" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A41" s="37"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="8" t="s">
         <v>10</v>
       </c>
@@ -2256,13 +2256,13 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="8" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -2416,13 +2416,13 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="13"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2448,7 +2448,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A48" s="36"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="14" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A49" s="36"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="14" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A50" s="36"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="14" t="s">
         <v>9</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A51" s="37"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="14" t="s">
         <v>10</v>
       </c>
@@ -2576,13 +2576,13 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2608,7 +2608,7 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A54" s="36"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A55" s="36"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A56" s="37"/>
+      <c r="A56" s="36"/>
       <c r="B56" s="8" t="s">
         <v>10</v>
       </c>
@@ -28357,6 +28357,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B47:C47"/>
@@ -28368,16 +28378,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
